--- a/work_with_prepared_data/datas/n_2.56_p_25.6_2019.xlsx
+++ b/work_with_prepared_data/datas/n_2.56_p_25.6_2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Kizilova\Крысы сканы\N+P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\neuro_stats\work_with_prepared_data\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="9165"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18780" windowHeight="9170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -516,24 +516,24 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -649,7 +649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -719,7 +719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -754,7 +754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
